--- a/#node教程/对象/#node-code/@koa实例/@2request-response/@.xlsx
+++ b/#node教程/对象/#node-code/@koa实例/@2request-response/@.xlsx
@@ -297,10 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>.then(response=&gt;{response.data})</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>axios.post(`/delCategory/${row._id}`)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -394,16 +390,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ctx.request.query   /ctx.query</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>axios获得response</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    ctx.response.body = {data:{msg:'msg'}, code: 0}
-    ctx.response.status=201</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -456,6 +443,19 @@
       </rPr>
       <t>对象</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ctx.request.query </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctx.response.body = {data:{msg:'msg'}, code: 0}
+ctx.response.status=201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>.then(response=&gt;{response.data.data.msg})</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,15 +727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>170846</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18942</xdr:rowOff>
+      <xdr:colOff>208946</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -752,7 +752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="10525125"/>
+          <a:off x="790575" y="10906125"/>
           <a:ext cx="4828571" cy="866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1110,32 +1110,32 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1150,21 +1150,21 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1194,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1215,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1239,20 +1239,20 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
